--- a/raw_data/KEEN ONE/Byrnes/2014/SW Shoals Entry 2014/SW Soals Logger Info 2014.xlsx
+++ b/raw_data/KEEN ONE/Byrnes/2014/SW Shoals Entry 2014/SW Soals Logger Info 2014.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="5940" yWindow="1760" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
@@ -22,38 +22,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Logger 1</t>
-  </si>
-  <si>
-    <t>Logger 2</t>
-  </si>
-  <si>
     <t>Latitude</t>
   </si>
   <si>
     <t>Longitude</t>
   </si>
   <si>
-    <t>Date Deployed</t>
-  </si>
-  <si>
     <t>Samples/Hr</t>
   </si>
   <si>
-    <t>Date Retrieved</t>
-  </si>
-  <si>
     <t>SW Appledore</t>
   </si>
   <si>
-    <t>2/ hour</t>
-  </si>
-  <si>
     <t>logger 1 and 2 plaud within ~ 2m of each other Smith cove</t>
   </si>
   <si>
@@ -73,13 +58,34 @@
   </si>
   <si>
     <t>Logger</t>
+  </si>
+  <si>
+    <t>Deployed Logger 1</t>
+  </si>
+  <si>
+    <t>Deployed Logger 2</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Retrieved Logger 1</t>
+  </si>
+  <si>
+    <t>Retrieved Logger 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -102,6 +108,19 @@
       <color theme="11"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -120,8 +139,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -159,10 +188,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -178,6 +207,11 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -193,6 +227,11 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -590,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -603,109 +642,174 @@
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" spans="1:16" ht="15">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D2">
+        <v>664</v>
+      </c>
+      <c r="E2" s="4">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>42.984294024999997</v>
+      </c>
+      <c r="I2">
+        <v>-70.617899000999998</v>
+      </c>
+      <c r="J2" s="4">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" ht="15">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D3">
+        <v>665</v>
+      </c>
+      <c r="E3" s="4">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4">
+        <v>21</v>
+      </c>
+      <c r="G3" s="4">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>42.984294024999997</v>
+      </c>
+      <c r="I3">
+        <v>-70.617899000999998</v>
+      </c>
+      <c r="J3" s="4">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:16" ht="15">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>42.984294024999997</v>
-      </c>
-      <c r="E2">
-        <v>-70.617899000999998</v>
-      </c>
-      <c r="F2" s="4">
-        <v>41841</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>42.984294024999997</v>
-      </c>
-      <c r="E3">
-        <v>-70.617899000999998</v>
-      </c>
-      <c r="F3" s="4">
-        <v>41841</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5" s="2"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
+    <row r="5" spans="1:16" ht="15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69:E1048576">
       <formula1>" IN 20, IN 40, OFF 40, OFF 20"</formula1>
     </dataValidation>
   </dataValidations>
